--- a/doc/Horas Trabajadas v0.0.2.xlsx
+++ b/doc/Horas Trabajadas v0.0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redbu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D2CBB7-DC67-4326-86DF-8DACA3AB2416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188FA519-5B1D-4C6E-8296-C57A0D1F6219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="2175" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fases" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>Fecha</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Ha actualizado el Excel .</t>
+  </si>
+  <si>
+    <t>ITERACIÓN</t>
   </si>
 </sst>
 </file>
@@ -229,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -722,27 +725,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
@@ -776,7 +822,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -785,15 +830,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
@@ -808,6 +844,36 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1088,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2210487C-E6A3-4E5C-AC44-EEDAA114AEA3}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,68 +1169,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="37" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="36"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1189,363 +1266,363 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="1" t="s">
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="1" t="s">
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="1" t="s">
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="3"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="62"/>
     </row>
     <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="Z2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AA2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AB2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AC2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="AD2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AE2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="20"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="15"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="26"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="21"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="20"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="15"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="20"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="15"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="20"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="15"/>
     </row>
     <row r="8" spans="1:31" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="34"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AE1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1555,7 +1632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E99C287-FBD3-427B-800A-2D641B615491}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -1567,142 +1644,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="34">
         <v>45585</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="35">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="35">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="34">
         <v>45585</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="35">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="35">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="34">
         <v>45585</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="35">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="35">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="34">
         <v>45585</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="35">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="35">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="34">
         <v>45585</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="35">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="35">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="34">
         <v>45585</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="35">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="35">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1710,13 +1787,13 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="34">
         <v>45596</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="35">
         <v>0.51388888888888884</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="35">
         <v>0.56597222222222221</v>
       </c>
       <c r="E8">
